--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H2">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I2">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J2">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N2">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q2">
-        <v>1.558965757256186</v>
+        <v>8.262818114030001</v>
       </c>
       <c r="R2">
-        <v>1.558965757256186</v>
+        <v>74.36536302627</v>
       </c>
       <c r="S2">
-        <v>0.003911078962358964</v>
+        <v>0.01699470667078115</v>
       </c>
       <c r="T2">
-        <v>0.003911078962358964</v>
+        <v>0.01699470667078115</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H3">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I3">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J3">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N3">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q3">
-        <v>9.119442903268578</v>
+        <v>9.74799432344</v>
       </c>
       <c r="R3">
-        <v>9.119442903268578</v>
+        <v>87.73194891096</v>
       </c>
       <c r="S3">
-        <v>0.02287854054612589</v>
+        <v>0.02004937079203158</v>
       </c>
       <c r="T3">
-        <v>0.02287854054612589</v>
+        <v>0.02004937079203158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H4">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I4">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J4">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N4">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q4">
-        <v>0.7569857531511064</v>
+        <v>1.24768102395</v>
       </c>
       <c r="R4">
-        <v>0.7569857531511064</v>
+        <v>11.22912921555</v>
       </c>
       <c r="S4">
-        <v>0.001899099476800263</v>
+        <v>0.002566191428651497</v>
       </c>
       <c r="T4">
-        <v>0.001899099476800263</v>
+        <v>0.002566191428651497</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H5">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I5">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J5">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N5">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q5">
-        <v>1.495845130816927</v>
+        <v>1.85834644661</v>
       </c>
       <c r="R5">
-        <v>1.495845130816927</v>
+        <v>16.72511801949</v>
       </c>
       <c r="S5">
-        <v>0.003752724134481282</v>
+        <v>0.003822189030059865</v>
       </c>
       <c r="T5">
-        <v>0.003752724134481282</v>
+        <v>0.003822189030059865</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H6">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I6">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J6">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N6">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q6">
-        <v>40.70756732549148</v>
+        <v>44.59318251762</v>
       </c>
       <c r="R6">
-        <v>40.70756732549148</v>
+        <v>401.33864265858</v>
       </c>
       <c r="S6">
-        <v>0.1021257262608224</v>
+        <v>0.09171786743275351</v>
       </c>
       <c r="T6">
-        <v>0.1021257262608224</v>
+        <v>0.09171786743275351</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H7">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I7">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J7">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N7">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q7">
-        <v>0.8019996062906478</v>
+        <v>1.03500900472</v>
       </c>
       <c r="R7">
-        <v>0.8019996062906478</v>
+        <v>9.315081042480001</v>
       </c>
       <c r="S7">
-        <v>0.002012028662838726</v>
+        <v>0.002128774250393681</v>
       </c>
       <c r="T7">
-        <v>0.002012028662838726</v>
+        <v>0.002128774250393681</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H8">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I8">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J8">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N8">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q8">
-        <v>1.154181863059978</v>
+        <v>6.190113821521334</v>
       </c>
       <c r="R8">
-        <v>1.154181863059978</v>
+        <v>55.71102439369201</v>
       </c>
       <c r="S8">
-        <v>0.002895571235185475</v>
+        <v>0.01273163310673369</v>
       </c>
       <c r="T8">
-        <v>0.002895571235185475</v>
+        <v>0.01273163310673369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H9">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I9">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J9">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N9">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q9">
-        <v>6.751588706277118</v>
+        <v>7.302737826357333</v>
       </c>
       <c r="R9">
-        <v>6.751588706277118</v>
+        <v>65.724640437216</v>
       </c>
       <c r="S9">
-        <v>0.0169381504556559</v>
+        <v>0.01502004346941022</v>
       </c>
       <c r="T9">
-        <v>0.0169381504556559</v>
+        <v>0.01502004346941022</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H10">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I10">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J10">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N10">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q10">
-        <v>0.5604351621035822</v>
+        <v>0.9347038074199999</v>
       </c>
       <c r="R10">
-        <v>0.5604351621035822</v>
+        <v>8.412334266779999</v>
       </c>
       <c r="S10">
-        <v>0.00140600020370387</v>
+        <v>0.00192246964799975</v>
       </c>
       <c r="T10">
-        <v>0.00140600020370387</v>
+        <v>0.00192246964799975</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H11">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I11">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J11">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N11">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q11">
-        <v>1.107450443923871</v>
+        <v>1.392185555289333</v>
       </c>
       <c r="R11">
-        <v>1.107450443923871</v>
+        <v>12.529669997604</v>
       </c>
       <c r="S11">
-        <v>0.002778333079431441</v>
+        <v>0.002863403843207831</v>
       </c>
       <c r="T11">
-        <v>0.002778333079431441</v>
+        <v>0.002863403843207832</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H12">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I12">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J12">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N12">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q12">
-        <v>30.13788832608357</v>
+        <v>33.407110218152</v>
       </c>
       <c r="R12">
-        <v>30.13788832608357</v>
+        <v>300.663991963368</v>
       </c>
       <c r="S12">
-        <v>0.07560888393695445</v>
+        <v>0.06871070269741721</v>
       </c>
       <c r="T12">
-        <v>0.07560888393695445</v>
+        <v>0.06871070269741721</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H13">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I13">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J13">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N13">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q13">
-        <v>0.593761213454155</v>
+        <v>0.7753799559786667</v>
       </c>
       <c r="R13">
-        <v>0.593761213454155</v>
+        <v>6.978419603808001</v>
       </c>
       <c r="S13">
-        <v>0.001489607439930228</v>
+        <v>0.001594777317908755</v>
       </c>
       <c r="T13">
-        <v>0.001489607439930228</v>
+        <v>0.001594777317908755</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H14">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I14">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J14">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N14">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q14">
-        <v>8.701224257606919</v>
+        <v>0.1275531149477778</v>
       </c>
       <c r="R14">
-        <v>8.701224257606919</v>
+        <v>1.14797803453</v>
       </c>
       <c r="S14">
-        <v>0.02182932818267255</v>
+        <v>0.000262347269849881</v>
       </c>
       <c r="T14">
-        <v>0.02182932818267255</v>
+        <v>0.0002623472698498811</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H15">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I15">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J15">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N15">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q15">
-        <v>50.89933337948366</v>
+        <v>0.1504797786044444</v>
       </c>
       <c r="R15">
-        <v>50.89933337948366</v>
+        <v>1.35431800744</v>
       </c>
       <c r="S15">
-        <v>0.1276944737573735</v>
+        <v>0.0003095021168291612</v>
       </c>
       <c r="T15">
-        <v>0.1276944737573735</v>
+        <v>0.0003095021168291612</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H16">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I16">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J16">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N16">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q16">
-        <v>4.225046488239736</v>
+        <v>0.01926045071666667</v>
       </c>
       <c r="R16">
-        <v>4.225046488239736</v>
+        <v>0.17334405645</v>
       </c>
       <c r="S16">
-        <v>0.0105996493882114</v>
+        <v>3.961429451303035E-05</v>
       </c>
       <c r="T16">
-        <v>0.0105996493882114</v>
+        <v>3.961429451303035E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H17">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I17">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J17">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N17">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q17">
-        <v>8.348922275749873</v>
+        <v>0.02868729223444445</v>
       </c>
       <c r="R17">
-        <v>8.348922275749873</v>
+        <v>0.25818563011</v>
       </c>
       <c r="S17">
-        <v>0.02094548524819812</v>
+        <v>5.900312822758948E-05</v>
       </c>
       <c r="T17">
-        <v>0.02094548524819812</v>
+        <v>5.900312822758949E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H18">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I18">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J18">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N18">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q18">
-        <v>227.2055499821517</v>
+        <v>0.6883849138466667</v>
       </c>
       <c r="R18">
-        <v>227.2055499821517</v>
+        <v>6.195464224619999</v>
       </c>
       <c r="S18">
-        <v>0.5700053657563205</v>
+        <v>0.001415848627667441</v>
       </c>
       <c r="T18">
-        <v>0.5700053657563205</v>
+        <v>0.001415848627667441</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.18289</v>
+      </c>
+      <c r="I19">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="J19">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2620826666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.7862480000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="P19">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="Q19">
+        <v>0.01597743296888889</v>
+      </c>
+      <c r="R19">
+        <v>0.14379689672</v>
+      </c>
+      <c r="S19">
+        <v>3.286188597051197E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.286188597051197E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H20">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I20">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J20">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.092292333333333</v>
+      </c>
+      <c r="N20">
+        <v>6.276877000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.1237967521619938</v>
+      </c>
+      <c r="P20">
+        <v>0.1237967521619938</v>
+      </c>
+      <c r="Q20">
+        <v>45.60943561349712</v>
+      </c>
+      <c r="R20">
+        <v>410.4849205214741</v>
+      </c>
+      <c r="S20">
+        <v>0.09380806511462905</v>
+      </c>
+      <c r="T20">
+        <v>0.09380806511462907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H21">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I21">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J21">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.468365333333333</v>
+      </c>
+      <c r="N21">
+        <v>7.405096</v>
+      </c>
+      <c r="O21">
+        <v>0.1460482393151517</v>
+      </c>
+      <c r="P21">
+        <v>0.1460482393151517</v>
+      </c>
+      <c r="Q21">
+        <v>53.80737096230578</v>
+      </c>
+      <c r="R21">
+        <v>484.2663386607521</v>
+      </c>
+      <c r="S21">
+        <v>0.1106693229368807</v>
+      </c>
+      <c r="T21">
+        <v>0.1106693229368807</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>20.6291693560275</v>
-      </c>
-      <c r="H19">
-        <v>20.6291693560275</v>
-      </c>
-      <c r="I19">
-        <v>0.7623042556057111</v>
-      </c>
-      <c r="J19">
-        <v>0.7623042556057111</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.216988241257446</v>
-      </c>
-      <c r="N19">
-        <v>0.216988241257446</v>
-      </c>
-      <c r="O19">
-        <v>0.01473158937570397</v>
-      </c>
-      <c r="P19">
-        <v>0.01473158937570397</v>
-      </c>
-      <c r="Q19">
-        <v>4.476287177166407</v>
-      </c>
-      <c r="R19">
-        <v>4.476287177166407</v>
-      </c>
-      <c r="S19">
-        <v>0.01122995327293502</v>
-      </c>
-      <c r="T19">
-        <v>0.01122995327293502</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H22">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I22">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J22">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.315935</v>
+      </c>
+      <c r="N22">
+        <v>0.9478049999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.01869324198688273</v>
+      </c>
+      <c r="P22">
+        <v>0.01869324198688273</v>
+      </c>
+      <c r="Q22">
+        <v>6.886999876156667</v>
+      </c>
+      <c r="R22">
+        <v>61.98299888541001</v>
+      </c>
+      <c r="S22">
+        <v>0.01416496661571845</v>
+      </c>
+      <c r="T22">
+        <v>0.01416496661571845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H23">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I23">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J23">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.4705663333333334</v>
+      </c>
+      <c r="N23">
+        <v>1.411699</v>
+      </c>
+      <c r="O23">
+        <v>0.02784246867197405</v>
+      </c>
+      <c r="P23">
+        <v>0.02784246867197405</v>
+      </c>
+      <c r="Q23">
+        <v>10.25777542655978</v>
+      </c>
+      <c r="R23">
+        <v>92.31997883903801</v>
+      </c>
+      <c r="S23">
+        <v>0.02109787267047876</v>
+      </c>
+      <c r="T23">
+        <v>0.02109787267047876</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H24">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I24">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J24">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.291786</v>
+      </c>
+      <c r="N24">
+        <v>33.875358</v>
+      </c>
+      <c r="O24">
+        <v>0.6681123907199095</v>
+      </c>
+      <c r="P24">
+        <v>0.6681123907199095</v>
+      </c>
+      <c r="Q24">
+        <v>246.1472416275107</v>
+      </c>
+      <c r="R24">
+        <v>2215.325174647596</v>
+      </c>
+      <c r="S24">
+        <v>0.5062679719620713</v>
+      </c>
+      <c r="T24">
+        <v>0.5062679719620713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H25">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I25">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J25">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2620826666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.7862480000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="P25">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="Q25">
+        <v>5.713084314419557</v>
+      </c>
+      <c r="R25">
+        <v>51.41775882977601</v>
+      </c>
+      <c r="S25">
+        <v>0.01175049368981531</v>
+      </c>
+      <c r="T25">
+        <v>0.01175049368981531</v>
       </c>
     </row>
   </sheetData>
